--- a/Performances_modele.xlsx
+++ b/Performances_modele.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plawson/Dropbox/lawson-it/training/OpenClassrooms/dev/project2/distributed_learning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plawson\Documents\My Dropbox\lawson-it\training\OpenClassrooms\dev\project2\distributed_learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17595" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 vs all" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_1vs1_yorkshire_terrier_wheaten_terrier" localSheetId="1">'1 vs 1'!$A$1:$B$17</definedName>
     <definedName name="_1vsall" localSheetId="0">'1 vs all'!$A$1:$B$17</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="171026" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -32,17 +32,17 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="1vs1_yorkshire_terrier_wheaten_terrier" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/plawson/Dropbox/lawson-it/training/OpenClassrooms/dev/project2/distributed_learning/1vs1_yorkshire_terrier_wheaten_terrier.txt" decimal="," thousands=" " tab="0" comma="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="1vs1_yorkshire_terrier_wheaten_terrier" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/plawson/Dropbox/lawson-it/training/OpenClassrooms/dev/project2/distributed_learning/1vs1_yorkshire_terrier_wheaten_terrier.txt" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="1vsall" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/plawson/Dropbox/lawson-it/training/OpenClassrooms/dev/project2/distributed_learning/1vsall.txt" decimal="," thousands=" " tab="0" comma="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="1vsall" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/plawson/Dropbox/lawson-it/training/OpenClassrooms/dev/project2/distributed_learning/1vsall.txt" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -106,12 +106,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -154,7 +157,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -225,52 +227,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -333,6 +335,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE5B-314A-A12C-7CB10E6407BF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -418,6 +425,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -498,7 +506,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -536,13 +544,12 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" baseline="0"/>
-              <a:t> de classifications réussies selon la taille du trains set en 1 vs 1</a:t>
+              <a:t> de classifications réussies selon la taille du train set en 1 vs 1</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1800" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -611,52 +618,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -719,6 +726,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-48C5-7C4E-B52C-C3235CE19114}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -804,6 +816,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1999,20 +2012,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>351367</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>351367</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Graphique 10"/>
+        <xdr:cNvPr id="11" name="Graphique 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2047,7 +2066,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2066,11 +2091,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1vsall" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="1vsall" connectionId="2" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1vs1_yorkshire_terrier_wheaten_terrier" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="1vs1_yorkshire_terrier_wheaten_terrier" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2335,20 +2360,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2356,7 +2381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -2364,7 +2389,7 @@
         <v>97.38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -2372,7 +2397,7 @@
         <v>97.88</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7</v>
       </c>
@@ -2380,7 +2405,7 @@
         <v>98.13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -2388,7 +2413,7 @@
         <v>98.44</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>13</v>
       </c>
@@ -2396,7 +2421,7 @@
         <v>98.95</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>16</v>
       </c>
@@ -2404,7 +2429,7 @@
         <v>98.98</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20</v>
       </c>
@@ -2412,7 +2437,7 @@
         <v>98.96</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>25</v>
       </c>
@@ -2420,7 +2445,7 @@
         <v>98.93</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>30</v>
       </c>
@@ -2428,7 +2453,7 @@
         <v>98.87</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>40</v>
       </c>
@@ -2436,7 +2461,7 @@
         <v>98.98</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>50</v>
       </c>
@@ -2444,7 +2469,7 @@
         <v>99.03</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>60</v>
       </c>
@@ -2452,7 +2477,7 @@
         <v>98.98</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>70</v>
       </c>
@@ -2460,7 +2485,7 @@
         <v>98.91</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>80</v>
       </c>
@@ -2468,7 +2493,7 @@
         <v>98.95</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>90</v>
       </c>
@@ -2476,7 +2501,7 @@
         <v>98.96</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>100</v>
       </c>
@@ -2491,20 +2516,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V30" sqref="V30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2512,7 +2537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -2520,7 +2545,7 @@
         <v>96.19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -2528,7 +2553,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7</v>
       </c>
@@ -2536,7 +2561,7 @@
         <v>97.93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -2544,7 +2569,7 @@
         <v>97.89</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>13</v>
       </c>
@@ -2552,7 +2577,7 @@
         <v>98.66</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>16</v>
       </c>
@@ -2560,7 +2585,7 @@
         <v>98.37</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20</v>
       </c>
@@ -2568,7 +2593,7 @@
         <v>98.33</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>25</v>
       </c>
@@ -2576,7 +2601,7 @@
         <v>98.57</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>30</v>
       </c>
@@ -2584,7 +2609,7 @@
         <v>98.53</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>40</v>
       </c>
@@ -2592,7 +2617,7 @@
         <v>98.44</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>50</v>
       </c>
@@ -2600,7 +2625,7 @@
         <v>98.33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>60</v>
       </c>
@@ -2608,7 +2633,7 @@
         <v>98.21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>70</v>
       </c>
@@ -2616,7 +2641,7 @@
         <v>98.46</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>80</v>
       </c>
@@ -2624,7 +2649,7 @@
         <v>98.75</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>90</v>
       </c>
@@ -2632,7 +2657,7 @@
         <v>98.64</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>100</v>
       </c>
